--- a/evaluation/results/anogan/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/anogan/split_3/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.5768621236133122</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>0.4219502407704655</v>
       </c>
       <c r="I2">
         <v>28</v>
